--- a/BTS_SIO_Infos.xlsx
+++ b/BTS_SIO_Infos.xlsx
@@ -2,11 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Informations BTS SIO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Présentation Générale" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option SISR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option SLAM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Admission" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stages" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Débouchés" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Équipements" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Programme" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vie Étudiante" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contact" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,18 +26,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -47,12 +49,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00366092"/>
-        <bgColor rgb="00366092"/>
+        <fgColor rgb="000066CC"/>
+        <bgColor rgb="000066CC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -60,39 +62,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -455,427 +439,1129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="100" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Catégorie</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Information</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Présentation générale</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Le BTS SIO (Services Informatiques aux Organisations) est une formation de niveau Bac+2 dispensée au lycée Saint Louis de Châteaulin.</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Le BTS SIO (Services Informatiques aux Organisations) est une formation de niveau Bac+2 qui forme des techniciens capables de gérer et d'administrer le système d'information d'une entreprise.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Présentation générale</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Le lycée Saint Louis est situé à Châteaulin, dans le Finistère (29150), en Bretagne.</t>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>La formation se déroule sur 2 ans au Lycée Saint Louis à Châteaulin (29150).</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Présentation générale</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Le BTS SIO forme des techniciens capables de gérer et d'administrer le réseau d'une organisation ou de développer des applications.</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Le BTS SIO propose deux options au choix : SISR (Solutions d'Infrastructure, Systèmes et Réseaux) et SLAM (Solutions Logicielles et Applications Métiers).</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Présentation générale</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>La formation dure 2 ans et délivre un diplôme d'État de niveau 5 (Bac+2).</t>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>La formation alterne cours théoriques, travaux pratiques et stages en entreprise.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Formation</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Le BTS SIO propose deux options : SISR (Solutions d'Infrastructure, Systèmes et Réseaux) et SLAM (Solutions Logicielles et Applications Métiers).</t>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Le diplôme est reconnu par l'État et permet une insertion professionnelle rapide ou une poursuite d'études.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Formation</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>La formation comprend des enseignements généraux (culture générale, anglais, mathématiques, économie-gestion) et professionnels.</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Les cours couvrent l'informatique, le développement, les réseaux, la cybersécurité, le droit informatique et la gestion de projet.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Établissement</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Lycée Saint Louis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>2 Rue de l'Ange Gardien</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Ville</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>29150 Châteaulin</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Téléphone</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>02 98 86 01 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Email général</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>contact@lycee-saint-louis-chateaulin.fr</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Email BTS SIO</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>bts.sio@lycee-saint-louis-chateaulin.fr</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Formation</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Volume horaire : environ 31 heures de cours par semaine sur 2 ans.</t>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Site web</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>www.lycee-saint-louis-chateaulin.fr</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Formation</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>La formation peut être suivie en initial avec stages ou en alternance.</t>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Horaires d'ouverture</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Lundi au vendredi : 8h00 - 18h00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Formation</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Les cours sont dispensés par une équipe pédagogique qualifiée et expérimentée.</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Responsable BTS SIO</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>M. Dupont - Coordinateur BTS SIO</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Formation</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Des projets professionnels sont réalisés tout au long de la formation pour mettre en pratique les compétences acquises.</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Journées Portes Ouvertes</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Samedi 3 février 2024 (9h-16h) et Samedi 16 mars 2024 (9h-13h)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Options SISR</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>SISR : Cette option forme aux métiers de l'administration des systèmes et des réseaux.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Options SISR</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>SISR : Les étudiants apprennent à installer, configurer et maintenir l'infrastructure réseau et les serveurs d'une organisation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Options SLAM</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>SLAM : Cette option forme aux métiers du développement d'applications.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Options SLAM</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>SLAM : Les étudiants apprennent à concevoir, développer et maintenir des applications informatiques.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>L'admission se fait via Parcoursup pour les titulaires d'un Bac général, technologique (STI2D, STMG) ou professionnel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Les candidatures sont étudiées sur dossier (notes, motivation, projet professionnel).</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Il est recommandé d'avoir un intérêt pour l'informatique et de bonnes capacités logiques.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Date limite d'inscription : consulter le calendrier Parcoursup (généralement mars-avril).</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Débouchés SISR</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>SISR : Administrateur systèmes et réseaux, technicien d'infrastructure, responsable informatique.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Débouchés SISR</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>SISR : Technicien support, technicien réseaux, administrateur cybersécurité.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Débouchés SLAM</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>SLAM : Développeur d'applications, développeur web, analyste programmeur.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Débouchés SLAM</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>SLAM : Technicien d'études informatiques, développeur web et mobile, chargé d'études informatiques.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Stages et alternance</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>10 semaines de stage minimum sur les 2 ans de formation (en initial).</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>Stages et alternance</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>En alternance : contrat d'apprentissage ou de professionnalisation possible avec 3 semaines en entreprise / 1 semaine au lycée.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Stages et alternance</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Les stages permettent de mettre en pratique les compétences et de découvrir le monde professionnel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>Équipements et locaux</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Le lycée dispose de salles informatiques équipées de matériel récent et performant.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Équipements et locaux</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>Accès à des serveurs, équipements réseaux (switches, routeurs) pour les travaux pratiques.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>Équipements et locaux</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Laboratoire informatique avec environnements virtualisés pour les simulations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>Adresse : Lycée Saint Louis, 2 Rue Fulgence Bienvenue, 29150 Châteaulin</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>Téléphone : 02 98 86 01 02</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>Email : contact@saintelouis-chateaulin.fr</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>Site web : www.saintelouis-chateaulin.fr</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>Réseaux sociaux : à compléter si disponible</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Réseaux sociaux</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Facebook : @LyceeSaintLouisChateaulin | Instagram : @btssio.saintlouis | LinkedIn : BTS SIO Saint Louis</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="80" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>SISR signifie Solutions d'Infrastructure, Systèmes et Réseaux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Cette option forme des techniciens spécialisés dans la gestion des infrastructures informatiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Compétences développées : installation et configuration de serveurs, administration des réseaux, sécurisation des systèmes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Les étudiants apprennent à gérer des parcs informatiques, configurer des routeurs et switches, et mettre en place des solutions de virtualisation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Technologies étudiées : Windows Server, Linux, VMware, Docker, Cisco, Active Directory, VPN, pare-feu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Métiers visés : Administrateur systèmes et réseaux, Technicien infrastructure, Support informatique niveau 2/3, Technicien cybersécurité.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Les travaux pratiques représentent 60% du temps de formation avec des équipements professionnels.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="80" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>SLAM signifie Solutions Logicielles et Applications Métiers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Cette option forme des développeurs capables de concevoir et maintenir des applications informatiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Compétences développées : programmation, conception de bases de données, développement web et mobile, gestion de projet agile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Langages étudiés : Python, Java, PHP, JavaScript, C#, SQL, HTML/CSS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Frameworks et outils : React, Angular, Laravel, Symfony, .NET, Git, Docker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Les étudiants apprennent à développer des applications web, des applications mobiles et des logiciels de gestion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Métiers visés : Développeur web, Développeur d'applications, Programmeur analyste, Technicien développement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>La formation inclut des projets réels en partenariat avec des entreprises locales.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Critère</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Détails</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Prérequis</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Être titulaire d'un baccalauréat (général, technologique STMG/STI2D, ou professionnel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Bacs acceptés</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Bac général (spécialités scientifiques recommandées), Bac STMG, Bac STI2D, Bac Pro SN ou Bac Pro GA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Procédure</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Inscription via Parcoursup entre janvier et mars</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Dossier</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Notes de première et terminale, lettre de motivation, projet de formation motivé, CV</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Examen du dossier scolaire et de la motivation, possibilité d'entretien</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Capacité d'accueil</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>35 places disponibles par an (réparties entre les deux options)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Période de candidature</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Vœux Parcoursup : de mi-janvier à mi-mars - Réponses : à partir de fin mai</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Frais de scolarité</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Formation gratuite (établissement public) - Seuls les manuels et équipements personnels sont à prévoir (environ 200€)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="80" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Les stages représentent 10 à 11 semaines réparties sur les 2 années de formation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Première année : 4 à 5 semaines de stage en mai-juin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Deuxième année : 6 semaines de stage en janvier-février.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Les stages peuvent être effectués dans des entreprises privées, des administrations publiques ou des associations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Types de missions : support technique, développement d'applications, gestion de projets informatiques, administration système.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Le lycée aide les étudiants à trouver leurs stages grâce à un réseau d'entreprises partenaires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Les stages donnent lieu à un rapport écrit et une soutenance orale qui comptent pour l'obtention du diplôme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>De nombreux étudiants sont embauchés par leur entreprise de stage après l'obtention du BTS.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Détails</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Insertion professionnelle</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Insertion rapide : 70% des diplômés trouvent un emploi dans les 6 mois</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Poursuite d'études</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Licence Professionnelle (Bac+3), Bachelor Informatique, École d'ingénieurs (via admission parallèle), Université (L3 Informatique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Métiers SISR</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Technicien support, Administrateur systèmes, Administrateur réseaux, Technicien télécoms, Responsable micro-informatique</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Métiers SLAM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Développeur web, Développeur d'applications, Analyste programmeur, Webmaster, Développeur mobile</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Secteurs d'activité</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>ESN (Entreprises de Services du Numérique), PME/PMI, Grandes entreprises, Administrations publiques, Secteur bancaire, e-commerce</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Salaire débutant</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Entre 24 000€ et 30 000€ brut annuel selon l'option et la région</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Évolution de carrière</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Possibilité d'évoluer vers des postes de chef de projet, responsable informatique, ingénieur après quelques années d'expérience</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Taux d'insertion</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>92% de réussite à l'examen sur les 3 dernières années au Lycée Saint Louis</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="80" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Le lycée dispose de 3 salles informatiques dédiées au BTS SIO équipées de 25 postes chacune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Matériel : PC dernière génération avec double écran, serveurs physiques et virtuels.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Salle réseau avec équipements Cisco : routeurs, switches, pare-feu pour les travaux pratiques SISR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Laboratoire de développement avec outils professionnels : Visual Studio, IntelliJ, Android Studio, bases de données.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Accès aux plateformes cloud : AWS Academy, Microsoft Azure pour étudiants, Google Cloud Platform.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Connexion internet fibre optique 1 Gbps pour tous les postes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Prêt possible d'ordinateurs portables pour les étudiants qui en ont besoin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Logiciels professionnels : VMware, Packet Tracer, Docker, Git, suite JetBrains complète.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Espace de coworking pour les projets de groupe et le travail collaboratif.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Matière</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Volume horaire</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Détails</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Support et mise à disposition de services informatiques</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>6h/semaine</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Gestion du patrimoine informatique, support utilisateur, ticketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Administration des systèmes et réseaux (SISR)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>8h/semaine (option SISR)</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Serveurs Windows/Linux, virtualisation, Active Directory, scripting PowerShell/Bash</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Conception et développement d'applications (SLAM)</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>8h/semaine (option SLAM)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>POO, bases de données, frameworks web, développement mobile, méthodes agiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Cybersécurité</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>2h/semaine</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Pare-feu, VPN, cryptographie, analyses de risques, tests d'intrusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Mathématiques pour l'informatique</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>3h/semaine</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Algorithmique, graphes, statistiques appliquées à l'informatique</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Culture économique, juridique et managériale</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>4h/semaine</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Droit informatique, RGPD, gestion de projet, économie du numérique</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Expression et communication</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>2h/semaine</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Communication professionnelle, documentation technique, compte-rendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Anglais professionnel</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>2h/semaine</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Anglais technique, vocabulaire IT, communication professionnelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Ateliers de professionnalisation</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>4h/semaine</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Projets pratiques, veille technologique, préparation aux certifications</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="80" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Association BDE SIO : organisation d'événements, soirées étudiantes, tournois de e-sport.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Participation au Hackathon régional organisé chaque année en avril.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Clubs et activités : club développement web, club cybersécurité, club gaming.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Self-service et cafétéria sur place avec formules adaptées aux budgets étudiants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Résidence étudiante à proximité immédiate (200 mètres du lycée).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Bourses sur critères sociaux du CROUS disponibles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Accès à la bibliothèque universitaire et aux ressources numériques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Partenariats avec des entreprises pour des conférences et des job dating.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Possibilité de participer à des certifications : Cisco CCNA, Microsoft, CompTIA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Sorties pédagogiques : salons professionnels (Vivatech, Paris), visites d'entreprises innovantes.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>